--- a/data/raw data copy/20251012_Consolidated Dunkin Sales Summary v2_Tender Type 2025-10-12 to 2025-10-12_20251013T0800_copy.xlsx
+++ b/data/raw data copy/20251012_Consolidated Dunkin Sales Summary v2_Tender Type 2025-10-12 to 2025-10-12_20251013T0800_copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samarpatel/Desktop/samar/Dunkin/Dunkin-Sales-Summary/data/raw data copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9432BDC3-5A8C-6647-87DE-B4DCAD6FAEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE1B1D-1822-8A4D-8238-1F221AB45028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36980" yWindow="8020" windowWidth="37700" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31100" yWindow="3960" windowWidth="37700" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tender Type 2025-10-12 to 20" sheetId="1" r:id="rId1"/>
@@ -20,46 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
-  <si>
-    <t>Sum of Amount</t>
-  </si>
-  <si>
-    <t>LOCATION NAME</t>
-  </si>
-  <si>
-    <t>Sales Mix Tran Type</t>
-  </si>
-  <si>
-    <t>GL Description</t>
-  </si>
-  <si>
-    <t>301290 - 2820 Paxton St</t>
-  </si>
-  <si>
-    <t>343939 - 807 E Main St</t>
-  </si>
-  <si>
-    <t>357993 - 423 N Enola Rd</t>
-  </si>
-  <si>
-    <t>358529 - 3929 Columbia Avenue</t>
-  </si>
-  <si>
-    <t>359042 - 737 South Broad Street</t>
-  </si>
-  <si>
-    <t>363271 - 1154 River Road</t>
-  </si>
-  <si>
-    <t>364322 - 820 South Market Street</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Non Cash Media 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Credit Card - Amex</t>
   </si>
@@ -76,15 +37,9 @@
     <t>Visa - Kiosk</t>
   </si>
   <si>
-    <t>Non Cash Media 2</t>
-  </si>
-  <si>
     <t>Gift Card Redeem</t>
   </si>
   <si>
-    <t>Non Cash Media 3</t>
-  </si>
-  <si>
     <t>Clover Go</t>
   </si>
   <si>
@@ -95,6 +50,33 @@
   </si>
   <si>
     <t>Grub Hub</t>
+  </si>
+  <si>
+    <t>PC Number</t>
+  </si>
+  <si>
+    <t>Paxton</t>
+  </si>
+  <si>
+    <t>MountJoy</t>
+  </si>
+  <si>
+    <t>Enola</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Lititz</t>
+  </si>
+  <si>
+    <t>Marietta</t>
+  </si>
+  <si>
+    <t>Etown</t>
+  </si>
+  <si>
+    <t>Store</t>
   </si>
 </sst>
 </file>
@@ -104,16 +86,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="* \$##,###,##0.00;* \-\$##,###,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,18 +101,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F7FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,29 +121,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,336 +433,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="22.6640625" customWidth="1"/>
+    <col min="1" max="10" width="22.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>301290</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="2">
+        <v>49.95</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.29</v>
+      </c>
+      <c r="E2" s="2">
+        <v>363.94</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1930.51</v>
+      </c>
+      <c r="H2" s="2">
+        <v>279.13</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="J2" s="2">
+        <v>408.31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>136.13999999999999</v>
+      </c>
+      <c r="L2" s="2">
+        <v>16.77</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>343939</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="2">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="D3" s="2">
+        <v>95.31</v>
+      </c>
+      <c r="E3" s="2">
+        <v>431.35</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2158.33</v>
+      </c>
+      <c r="H3" s="2">
+        <v>925.9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>157.33000000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>75.349999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>357993</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
-        <v>49.95</v>
-      </c>
-      <c r="D3" s="6">
-        <v>37.479999999999997</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C4" s="2">
         <v>61.77</v>
       </c>
-      <c r="F3" s="6">
+      <c r="D4" s="2">
+        <v>158.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>632.37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4269.17</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1262.6199999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>322.32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>124.31</v>
+      </c>
+      <c r="L4" s="2">
+        <v>75.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>358529</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
         <v>67.09</v>
       </c>
-      <c r="G3" s="6">
+      <c r="D5" s="2">
+        <v>105.54</v>
+      </c>
+      <c r="E5" s="2">
+        <v>664.55</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2535.9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>13.43</v>
+      </c>
+      <c r="H5" s="2">
+        <v>695.84</v>
+      </c>
+      <c r="J5" s="2">
+        <v>310.47000000000003</v>
+      </c>
+      <c r="K5" s="2">
+        <v>64.290000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>359042</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
         <v>49.5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="D6" s="2">
+        <v>51.16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>568.95000000000005</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2520.4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>857.31</v>
+      </c>
+      <c r="J6" s="2">
+        <v>239.86</v>
+      </c>
+      <c r="K6" s="2">
+        <v>51.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>363271</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
         <v>82.37</v>
       </c>
-      <c r="I3" s="6">
+      <c r="D7" s="2">
+        <v>106.59</v>
+      </c>
+      <c r="E7" s="2">
+        <v>459.57</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2564.6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>426.99</v>
+      </c>
+      <c r="J7" s="2">
+        <v>136.81</v>
+      </c>
+      <c r="K7" s="2">
+        <v>33.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>364322</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
         <v>82.66</v>
       </c>
-      <c r="J3" s="6">
-        <v>430.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5.29</v>
-      </c>
-      <c r="D4" s="6">
-        <v>95.31</v>
-      </c>
-      <c r="E4" s="6">
-        <v>158.1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>105.54</v>
-      </c>
-      <c r="G4" s="6">
-        <v>51.16</v>
-      </c>
-      <c r="H4" s="6">
-        <v>106.59</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="D8" s="2">
         <v>214.92</v>
       </c>
-      <c r="J4" s="6">
-        <v>736.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6">
-        <v>363.94</v>
-      </c>
-      <c r="D5" s="6">
-        <v>431.35</v>
-      </c>
-      <c r="E5" s="6">
-        <v>632.37</v>
-      </c>
-      <c r="F5" s="6">
-        <v>664.55</v>
-      </c>
-      <c r="G5" s="6">
-        <v>568.95000000000005</v>
-      </c>
-      <c r="H5" s="6">
-        <v>459.57</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="E8" s="2">
         <v>713.62</v>
       </c>
-      <c r="J5" s="6">
-        <v>3834.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1930.51</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2158.33</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4269.17</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2535.9</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2520.4</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2564.6</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="F8" s="2">
         <v>3362.91</v>
       </c>
-      <c r="J6" s="6">
-        <v>19341.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6">
-        <v>13.43</v>
-      </c>
-      <c r="J7" s="6">
-        <v>13.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6">
-        <v>279.13</v>
-      </c>
-      <c r="D8" s="6">
-        <v>925.9</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1262.6199999999999</v>
-      </c>
-      <c r="F8" s="6">
-        <v>695.84</v>
-      </c>
-      <c r="G8" s="6">
-        <v>857.31</v>
-      </c>
-      <c r="H8" s="6">
-        <v>426.99</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="2">
         <v>845.76</v>
       </c>
-      <c r="J8" s="6">
-        <v>5293.55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3.01</v>
-      </c>
-      <c r="J9" s="6">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6">
-        <v>408.31</v>
-      </c>
-      <c r="D10" s="6">
-        <v>157.33000000000001</v>
-      </c>
-      <c r="E10" s="6">
-        <v>322.32</v>
-      </c>
-      <c r="F10" s="6">
-        <v>310.47000000000003</v>
-      </c>
-      <c r="G10" s="6">
-        <v>239.86</v>
-      </c>
-      <c r="H10" s="6">
-        <v>136.81</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1575.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6">
-        <v>136.13999999999999</v>
-      </c>
-      <c r="D11" s="6">
-        <v>75.349999999999994</v>
-      </c>
-      <c r="E11" s="6">
-        <v>124.31</v>
-      </c>
-      <c r="F11" s="6">
-        <v>64.290000000000006</v>
-      </c>
-      <c r="G11" s="6">
-        <v>51.01</v>
-      </c>
-      <c r="H11" s="6">
-        <v>33.01</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="K8" s="2">
         <v>18.79</v>
-      </c>
-      <c r="J11" s="6">
-        <v>502.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="6">
-        <v>16.77</v>
-      </c>
-      <c r="E12" s="6">
-        <v>75.58</v>
-      </c>
-      <c r="J12" s="6">
-        <v>92.35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:J1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>